--- a/database/relatorio/PE 90006-2024/ORTOBENS_DISTRIBUIDORA_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/ORTOBENS_DISTRIBUIDORA_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 133 - MALHA TUBULAR ORTOPÉDICA (445965)</t>
+          <t>Grupo N/A - Item 133 - MALHA TUBULAR ORTOPÉDICA (445965)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 134 - MALHA TUBULAR ORTOPÉDICA (445969)</t>
+          <t>Grupo N/A - Item 134 - MALHA TUBULAR ORTOPÉDICA (445969)</t>
         </is>
       </c>
     </row>
